--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -294,10 +294,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -518,6 +518,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>STF-7</t>
   </si>
   <si>
@@ -534,10 +537,10 @@
 </t>
   </si>
   <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+    <t>El período durante el cual el profesional está autorizado a desempeñar estas funciones.</t>
+  </si>
+  <si>
+    <t>El período durante el cual la persona está autorizada a actuar como profesional en estas funciones para la organización.</t>
   </si>
   <si>
     <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
@@ -553,6 +556,91 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Fecha y Hora del inicio de las funciones especificadas.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period.end</t>
+  </si>
+  <si>
+    <t>Fecha y Hora del término de las funciones especificadas.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>PractitionerRole.practitioner</t>
@@ -565,10 +653,96 @@
     <t>Referencia al prestador, profesional o administrativo, que varía según evento</t>
   </si>
   <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
+    <t>La referencia al prestador de salud, al cual se le quieren asignar funciones o actividades de especialidad.</t>
   </si>
   <si>
     <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.reference</t>
+  </si>
+  <si>
+    <t>Referencia al uri del recurso Practitioner del prestador en cuestión</t>
+  </si>
+  <si>
+    <t>La referencia es una URI comunmente, la cual hace referencia al Prestador en cuestion</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.display</t>
+  </si>
+  <si>
+    <t>Nombre del prestador de salud</t>
+  </si>
+  <si>
+    <t>Nombre completo del prestador de salud</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>PractitionerRole.organization</t>
@@ -581,10 +755,40 @@
     <t>Organización, que se identifica con el código de establecimiento</t>
   </si>
   <si>
-    <t>The organization where the Practitioner performs the roles associated.</t>
+    <t>La referencia a la organización en donde el prestador individual cumple roles.</t>
   </si>
   <si>
     <t>.scoper</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.reference</t>
+  </si>
+  <si>
+    <t>Referencia al uri del recurso organization del prestador en cuestión</t>
+  </si>
+  <si>
+    <t>La referencia es una URI comunmente, la cual hace referencia al organización en cuestion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.display</t>
+  </si>
+  <si>
+    <t>Nombre de la organización de salud</t>
+  </si>
+  <si>
+    <t>Nombre completo de la organización de salud</t>
   </si>
   <si>
     <t>PractitionerRole.code</t>
@@ -621,39 +825,7 @@
     <t>PractitionerRole.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>PractitionerRole.code.coding</t>
@@ -828,16 +1000,16 @@
     <t>PractitionerRole.specialty</t>
   </si>
   <si>
-    <t>Specific specialty of the practitioner</t>
-  </si>
-  <si>
-    <t>Specific specialty of the practitioner.</t>
-  </si>
-  <si>
-    <t>Specific specialty associated with the agency.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>Definición de la especialidad médica según DEIS</t>
+  </si>
+  <si>
+    <t>Definición de la especialidad médica según DEIS, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
+  </si>
+  <si>
+    <t>Códigos de Especialidad DEIS</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSEspecialidadesDeisCL</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -852,14 +1024,14 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreLocalizacionCl)
 </t>
   </si>
   <si>
-    <t>The location(s) at which this practitioner provides care</t>
-  </si>
-  <si>
-    <t>The location(s) at which this practitioner provides care.</t>
+    <t>Referencia a la ubicación donde el presador cumple roles</t>
+  </si>
+  <si>
+    <t>La referencia a la ubicación en donde el prestador individual cumple roles.</t>
   </si>
   <si>
     <t>.performance.ActDefinitionOrEvent.ServiceDeliveryLocation[@classCode = 'SDLOC']</t>
@@ -869,6 +1041,36 @@
   </si>
   <si>
     <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.reference</t>
+  </si>
+  <si>
+    <t>Referencia al uri del recurso location del prestador en cuestión</t>
+  </si>
+  <si>
+    <t>La referencia es una URI comunmente, la cual hace referencia a la ubicación en cuestion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location.display</t>
+  </si>
+  <si>
+    <t>Nombre de la ubicación</t>
+  </si>
+  <si>
+    <t>Nombre completo de la ubicación de salud</t>
   </si>
   <si>
     <t>PractitionerRole.healthcareService</t>
@@ -1380,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1413,7 +1615,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="72.41015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
@@ -1677,13 +1879,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>
@@ -2709,7 +2911,7 @@
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>77</v>
@@ -2742,7 +2944,7 @@
         <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>77</v>
@@ -2796,24 +2998,24 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2827,7 +3029,7 @@
         <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
@@ -2836,17 +3038,17 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2895,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2910,24 +3112,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2941,22 +3143,22 @@
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3007,7 +3209,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3019,13 +3221,13 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3036,41 +3238,43 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3107,37 +3311,37 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3148,10 +3352,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3159,7 +3363,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3174,20 +3378,18 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3211,50 +3413,52 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3262,10 +3466,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3279,29 +3483,33 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="R17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3345,7 +3553,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3354,16 +3562,16 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3374,43 +3582,41 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3447,37 +3653,37 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3488,10 +3694,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3499,7 +3705,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3511,23 +3717,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3575,25 +3777,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3604,21 +3806,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3630,15 +3832,17 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3675,37 +3879,37 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3716,42 +3920,42 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3789,37 +3993,37 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3830,10 +4034,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3859,17 +4063,15 @@
         <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3893,13 +4095,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3932,10 +4134,10 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3946,10 +4148,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3972,16 +4174,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4031,7 +4233,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4046,10 +4248,10 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4060,10 +4262,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4071,7 +4273,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4086,18 +4288,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4145,7 +4347,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4160,10 +4362,10 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4174,10 +4376,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4185,13 +4387,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
@@ -4200,18 +4402,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4259,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4274,10 +4474,10 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4488,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4311,23 +4511,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4375,7 +4571,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4387,13 +4583,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4404,21 +4600,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4427,23 +4623,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4479,37 +4673,37 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4520,10 +4714,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4534,10 +4728,10 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -4546,15 +4740,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4579,13 +4775,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4603,28 +4799,28 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4632,10 +4828,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4646,7 +4842,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4658,15 +4854,17 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4691,13 +4889,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4715,13 +4913,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4733,21 +4931,21 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4758,7 +4956,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4767,18 +4965,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4827,13 +5027,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4842,10 +5042,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4856,10 +5056,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4870,10 +5070,10 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
@@ -4882,18 +5082,18 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4941,13 +5141,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -4959,7 +5159,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4970,10 +5170,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4981,33 +5181,35 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5031,13 +5233,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5055,7 +5255,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5070,13 +5270,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5084,10 +5284,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5110,13 +5310,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5167,7 +5367,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5185,7 +5385,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5196,10 +5396,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5228,7 +5428,7 @@
         <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>137</v>
@@ -5269,19 +5469,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5299,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5310,45 +5510,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5397,7 +5597,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5409,13 +5609,13 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5426,10 +5626,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5440,7 +5640,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5452,13 +5652,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5485,13 +5685,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5509,25 +5709,25 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5538,21 +5738,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5564,15 +5764,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5609,37 +5811,37 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5650,10 +5852,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5673,21 +5875,23 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5735,7 +5939,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5750,10 +5954,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5764,10 +5968,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5787,19 +5991,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5849,7 +6053,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5864,10 +6068,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5878,10 +6082,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5889,31 +6093,33 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -5961,13 +6167,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -5976,10 +6182,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5990,10 +6196,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6013,19 +6219,21 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6073,7 +6281,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6085,13 +6293,13 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6102,21 +6310,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6125,21 +6333,23 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6187,25 +6397,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6216,45 +6426,45 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6303,25 +6513,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6332,10 +6542,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6343,28 +6553,28 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6391,13 +6601,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6415,13 +6625,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6430,13 +6640,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6444,10 +6654,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6458,25 +6668,25 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6527,13 +6737,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6545,21 +6755,21 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6582,13 +6792,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6639,7 +6849,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6651,13 +6861,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6675,7 +6885,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6694,18 +6904,18 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6741,19 +6951,19 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6765,23 +6975,2517 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN47">
+  <autoFilter ref="A1:AN69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6791,7 +9495,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>STF-7</t>
@@ -801,7 +798,7 @@
     <t>Roles que el prestador puede realizar</t>
   </si>
   <si>
-    <t>Roles which this practitioner is authorized to perform for the organization.</t>
+    <t>Rol que cumple un profesional en una organización.</t>
   </si>
   <si>
     <t>A person may have more than one role.</t>
@@ -1000,16 +997,16 @@
     <t>PractitionerRole.specialty</t>
   </si>
   <si>
-    <t>Definición de la especialidad médica según DEIS</t>
-  </si>
-  <si>
-    <t>Definición de la especialidad médica según DEIS, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
-  </si>
-  <si>
-    <t>Códigos de Especialidad DEIS</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSEspecialidadesDeisCL</t>
+    <t>Definición de la especialidad</t>
+  </si>
+  <si>
+    <t>Definición de la especialidad, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
+  </si>
+  <si>
+    <t>Códigos de Especialidades</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSEspecialidadesCL</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1028,7 +1025,7 @@
 </t>
   </si>
   <si>
-    <t>Referencia a la ubicación donde el presador cumple roles</t>
+    <t>Referencia a la ubicación donde el prestador cumple roles</t>
   </si>
   <si>
     <t>La referencia a la ubicación en donde el prestador individual cumple roles.</t>
@@ -2944,7 +2941,7 @@
         <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>77</v>
@@ -2998,24 +2995,24 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3038,17 +3035,17 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3097,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3112,24 +3109,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3152,13 +3149,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3209,7 +3206,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3227,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3238,10 +3235,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3270,7 +3267,7 @@
         <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>137</v>
@@ -3311,19 +3308,19 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3341,7 +3338,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3352,10 +3349,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3378,16 +3375,16 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3437,7 +3434,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3446,16 +3443,16 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3466,10 +3463,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3492,68 +3489,68 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3562,16 +3559,16 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3582,10 +3579,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3608,13 +3605,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3665,7 +3662,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3683,7 +3680,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3694,10 +3691,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3720,13 +3717,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3777,7 +3774,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3795,7 +3792,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3838,7 +3835,7 @@
         <v>135</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>137</v>
@@ -3879,19 +3876,19 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3909,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3920,10 +3917,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3946,16 +3943,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4005,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4014,7 +4011,7 @@
         <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
@@ -4034,10 +4031,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4063,13 +4060,13 @@
         <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4095,31 +4092,31 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4148,10 +4145,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4177,13 +4174,13 @@
         <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4233,7 +4230,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4251,7 +4248,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4262,10 +4259,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4288,16 +4285,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4347,7 +4344,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4402,13 +4399,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4459,7 +4456,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4477,7 +4474,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4488,10 +4485,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4514,13 +4511,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4571,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4589,7 +4586,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4600,10 +4597,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4632,7 +4629,7 @@
         <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>137</v>
@@ -4673,19 +4670,19 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4703,7 +4700,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4714,10 +4711,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4740,16 +4737,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4799,7 +4796,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4808,7 +4805,7 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -4828,10 +4825,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4857,13 +4854,13 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4889,31 +4886,31 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4942,10 +4939,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4971,13 +4968,13 @@
         <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5027,7 +5024,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5045,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5056,10 +5053,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5082,16 +5079,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5141,7 +5138,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5170,10 +5167,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5196,19 +5193,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5233,11 +5230,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5255,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5270,13 +5267,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5284,10 +5281,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5310,13 +5307,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5367,7 +5364,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5385,7 +5382,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5396,10 +5393,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5428,7 +5425,7 @@
         <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>137</v>
@@ -5469,19 +5466,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC34" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC34" t="s" s="2">
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5499,7 +5496,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5510,10 +5507,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5536,19 +5533,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5597,7 +5594,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5612,10 +5609,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5626,10 +5623,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5652,13 +5649,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5709,7 +5706,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5727,7 +5724,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5735,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5770,7 +5767,7 @@
         <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>137</v>
@@ -5811,19 +5808,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5841,7 +5838,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5852,10 +5849,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5881,16 +5878,16 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5939,7 +5936,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5954,10 +5951,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5968,10 +5965,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5994,16 +5991,16 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6053,7 +6050,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6068,10 +6065,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6082,10 +6079,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6111,14 +6108,14 @@
         <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6167,7 +6164,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6182,10 +6179,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6196,10 +6193,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6222,17 +6219,17 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6281,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6296,10 +6293,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6310,10 +6307,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6339,16 +6336,16 @@
         <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6397,7 +6394,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6412,10 +6409,10 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6426,10 +6423,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6452,19 +6449,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6513,7 +6510,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6528,10 +6525,10 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6542,10 +6539,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6568,13 +6565,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6601,14 +6598,14 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6625,7 +6622,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6640,13 +6637,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6654,10 +6651,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6680,13 +6677,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6737,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6755,21 +6752,21 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6792,13 +6789,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6849,7 +6846,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6867,7 +6864,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6878,10 +6875,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6910,7 +6907,7 @@
         <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>137</v>
@@ -6951,19 +6948,19 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC47" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6981,7 +6978,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6992,10 +6989,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7018,16 +7015,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7077,7 +7074,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7086,7 +7083,7 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7106,10 +7103,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7135,13 +7132,13 @@
         <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7167,31 +7164,31 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7220,10 +7217,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7249,13 +7246,13 @@
         <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7305,7 +7302,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7323,7 +7320,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7334,10 +7331,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7360,16 +7357,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7419,7 +7416,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7448,10 +7445,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7474,13 +7471,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7531,7 +7528,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7546,10 +7543,10 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7560,10 +7557,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7586,17 +7583,17 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7645,7 +7642,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7663,7 +7660,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7674,10 +7671,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7700,16 +7697,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7759,7 +7756,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7777,7 +7774,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7788,10 +7785,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7814,13 +7811,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7871,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7889,7 +7886,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7900,10 +7897,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7932,7 +7929,7 @@
         <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>137</v>
@@ -7985,7 +7982,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8003,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8014,14 +8011,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8043,10 +8040,10 @@
         <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>137</v>
@@ -8101,7 +8098,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8130,10 +8127,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8159,10 +8156,10 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8189,14 +8186,14 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8213,7 +8210,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8231,7 +8228,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8242,10 +8239,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8271,10 +8268,10 @@
         <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8325,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8343,7 +8340,7 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8354,10 +8351,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8380,16 +8377,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8439,7 +8436,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8457,7 +8454,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8468,10 +8465,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8494,16 +8491,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8553,7 +8550,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8571,7 +8568,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8582,10 +8579,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8608,13 +8605,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8665,7 +8662,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8683,7 +8680,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8694,10 +8691,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8720,13 +8717,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8777,7 +8774,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8795,7 +8792,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8806,10 +8803,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8838,7 +8835,7 @@
         <v>135</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>137</v>
@@ -8891,7 +8888,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8909,7 +8906,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8920,14 +8917,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8949,10 +8946,10 @@
         <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>137</v>
@@ -9007,7 +9004,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9036,10 +9033,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9062,13 +9059,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9119,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>88</v>
@@ -9137,7 +9134,7 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9148,10 +9145,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9174,13 +9171,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9231,7 +9228,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9249,7 +9246,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9260,10 +9257,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9286,13 +9283,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9343,7 +9340,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9361,7 +9358,7 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9372,10 +9369,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9398,17 +9395,17 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9457,7 +9454,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9475,7 +9472,7 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -668,7 +668,7 @@
     <t>Referencia al uri del recurso Practitioner del prestador en cuestión</t>
   </si>
   <si>
-    <t>La referencia es una URI comunmente, la cual hace referencia al Prestador en cuestion</t>
+    <t>La referencia es una URI comúnmente, la cual hace referencia al Prestador en cuestion</t>
   </si>
   <si>
     <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
@@ -770,7 +770,7 @@
     <t>Referencia al uri del recurso organization del prestador en cuestión</t>
   </si>
   <si>
-    <t>La referencia es una URI comunmente, la cual hace referencia al organización en cuestion</t>
+    <t>La referencia es una URI comúnmente, la cual hace referencia al organización en cuestion</t>
   </si>
   <si>
     <t>PractitionerRole.organization.type</t>
@@ -1000,7 +1000,7 @@
     <t>Definición de la especialidad</t>
   </si>
   <si>
-    <t>Definición de la especialidad, en el decreto correspondiete. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
+    <t>Definición de la especialidad, en el decreto correspondiente. la tabla sigue siendo extensible ante futuros elementos agregados a esta</t>
   </si>
   <si>
     <t>Códigos de Especialidades</t>
@@ -1052,7 +1052,7 @@
     <t>Referencia al uri del recurso location del prestador en cuestión</t>
   </si>
   <si>
-    <t>La referencia es una URI comunmente, la cual hace referencia a la ubicación en cuestion</t>
+    <t>La referencia es una URI comúnmente, la cual hace referencia a la ubicación en cuestion</t>
   </si>
   <si>
     <t>PractitionerRole.location.type</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerRoleLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,17 +1588,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="177.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="160.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1607,26 +1607,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.41015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="91.0390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="74.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="185.46875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="75.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="167.0703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
